--- a/natmiOut/OldD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5788751339637</v>
+        <v>12.6170435</v>
       </c>
       <c r="H2">
-        <v>11.5788751339637</v>
+        <v>25.234087</v>
       </c>
       <c r="I2">
-        <v>0.2004270821340053</v>
+        <v>0.2088840483932193</v>
       </c>
       <c r="J2">
-        <v>0.2004270821340053</v>
+        <v>0.1671141605186441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>21.18118890537726</v>
+        <v>25.474391210501</v>
       </c>
       <c r="R2">
-        <v>21.18118890537726</v>
+        <v>101.897564842004</v>
       </c>
       <c r="S2">
-        <v>0.0007448845624121843</v>
+        <v>0.0008303878968605415</v>
       </c>
       <c r="T2">
-        <v>0.0007448845624121843</v>
+        <v>0.0004523876477637977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5788751339637</v>
+        <v>12.6170435</v>
       </c>
       <c r="H3">
-        <v>11.5788751339637</v>
+        <v>25.234087</v>
       </c>
       <c r="I3">
-        <v>0.2004270821340053</v>
+        <v>0.2088840483932193</v>
       </c>
       <c r="J3">
-        <v>0.2004270821340053</v>
+        <v>0.1671141605186441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>1522.756057163899</v>
+        <v>1762.535578607858</v>
       </c>
       <c r="R3">
-        <v>1522.756057163899</v>
+        <v>10575.21347164715</v>
       </c>
       <c r="S3">
-        <v>0.05355117148372515</v>
+        <v>0.05745331459221446</v>
       </c>
       <c r="T3">
-        <v>0.05355117148372515</v>
+        <v>0.04695005179423473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5788751339637</v>
+        <v>12.6170435</v>
       </c>
       <c r="H4">
-        <v>11.5788751339637</v>
+        <v>25.234087</v>
       </c>
       <c r="I4">
-        <v>0.2004270821340053</v>
+        <v>0.2088840483932193</v>
       </c>
       <c r="J4">
-        <v>0.2004270821340053</v>
+        <v>0.1671141605186441</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>2133.136321986062</v>
+        <v>2351.247295148468</v>
       </c>
       <c r="R4">
-        <v>2133.136321986062</v>
+        <v>14107.48377089081</v>
       </c>
       <c r="S4">
-        <v>0.07501657828870693</v>
+        <v>0.07664353115581186</v>
       </c>
       <c r="T4">
-        <v>0.07501657828870693</v>
+        <v>0.06263203059734405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5788751339637</v>
+        <v>12.6170435</v>
       </c>
       <c r="H5">
-        <v>11.5788751339637</v>
+        <v>25.234087</v>
       </c>
       <c r="I5">
-        <v>0.2004270821340053</v>
+        <v>0.2088840483932193</v>
       </c>
       <c r="J5">
-        <v>0.2004270821340053</v>
+        <v>0.1671141605186441</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>1617.850100302865</v>
+        <v>1811.873046814838</v>
       </c>
       <c r="R5">
-        <v>1617.850100302865</v>
+        <v>10871.23828088903</v>
       </c>
       <c r="S5">
-        <v>0.05689536925411523</v>
+        <v>0.05906156642921732</v>
       </c>
       <c r="T5">
-        <v>0.05689536925411523</v>
+        <v>0.04826429288861519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5788751339637</v>
+        <v>12.6170435</v>
       </c>
       <c r="H6">
-        <v>11.5788751339637</v>
+        <v>25.234087</v>
       </c>
       <c r="I6">
-        <v>0.2004270821340053</v>
+        <v>0.2088840483932193</v>
       </c>
       <c r="J6">
-        <v>0.2004270821340053</v>
+        <v>0.1671141605186441</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>57.41660360992217</v>
+        <v>78.90339839728368</v>
       </c>
       <c r="R6">
-        <v>57.41660360992217</v>
+        <v>473.4203903837021</v>
       </c>
       <c r="S6">
-        <v>0.002019185129136591</v>
+        <v>0.002572011496127968</v>
       </c>
       <c r="T6">
-        <v>0.002019185129136591</v>
+        <v>0.002101812120252135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.5788751339637</v>
+        <v>12.6170435</v>
       </c>
       <c r="H7">
-        <v>11.5788751339637</v>
+        <v>25.234087</v>
       </c>
       <c r="I7">
-        <v>0.2004270821340053</v>
+        <v>0.2088840483932193</v>
       </c>
       <c r="J7">
-        <v>0.2004270821340053</v>
+        <v>0.1671141605186441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>346.9104611740509</v>
+        <v>378.0485686211157</v>
       </c>
       <c r="R7">
-        <v>346.9104611740509</v>
+        <v>1512.194274484463</v>
       </c>
       <c r="S7">
-        <v>0.01219989341590924</v>
+        <v>0.01232323682298716</v>
       </c>
       <c r="T7">
-        <v>0.01219989341590924</v>
+        <v>0.00671358547043424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8621589154841</v>
+        <v>20.01936066666667</v>
       </c>
       <c r="H8">
-        <v>18.8621589154841</v>
+        <v>60.058082</v>
       </c>
       <c r="I8">
-        <v>0.3264986823365327</v>
+        <v>0.3314346266855077</v>
       </c>
       <c r="J8">
-        <v>0.3264986823365327</v>
+        <v>0.3977380261782363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>34.50447012596371</v>
+        <v>40.42001007659066</v>
       </c>
       <c r="R8">
-        <v>34.50447012596371</v>
+        <v>242.520060459544</v>
       </c>
       <c r="S8">
-        <v>0.001213427973559966</v>
+        <v>0.00131756974607292</v>
       </c>
       <c r="T8">
-        <v>0.001213427973559966</v>
+        <v>0.001076699721499149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8621589154841</v>
+        <v>20.01936066666667</v>
       </c>
       <c r="H9">
-        <v>18.8621589154841</v>
+        <v>60.058082</v>
       </c>
       <c r="I9">
-        <v>0.3264986823365327</v>
+        <v>0.3314346266855077</v>
       </c>
       <c r="J9">
-        <v>0.3264986823365327</v>
+        <v>0.3977380261782363</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>2480.592147979156</v>
+        <v>2796.600918113877</v>
       </c>
       <c r="R9">
-        <v>2480.592147979156</v>
+        <v>25169.4082630249</v>
       </c>
       <c r="S9">
-        <v>0.08723565069576739</v>
+        <v>0.09116070863328674</v>
       </c>
       <c r="T9">
-        <v>0.08723565069576739</v>
+        <v>0.1117429000130814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.8621589154841</v>
+        <v>20.01936066666667</v>
       </c>
       <c r="H10">
-        <v>18.8621589154841</v>
+        <v>60.058082</v>
       </c>
       <c r="I10">
-        <v>0.3264986823365327</v>
+        <v>0.3314346266855077</v>
       </c>
       <c r="J10">
-        <v>0.3264986823365327</v>
+        <v>0.3977380261782363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>3474.910630625209</v>
+        <v>3730.70502753689</v>
       </c>
       <c r="R10">
-        <v>3474.910630625209</v>
+        <v>33576.345247832</v>
       </c>
       <c r="S10">
-        <v>0.1222031159855049</v>
+        <v>0.1216096697277061</v>
       </c>
       <c r="T10">
-        <v>0.1222031159855049</v>
+        <v>0.1490666030216111</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.8621589154841</v>
+        <v>20.01936066666667</v>
       </c>
       <c r="H11">
-        <v>18.8621589154841</v>
+        <v>60.058082</v>
       </c>
       <c r="I11">
-        <v>0.3264986823365327</v>
+        <v>0.3314346266855077</v>
       </c>
       <c r="J11">
-        <v>0.3264986823365327</v>
+        <v>0.3977380261782363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>2635.501751274019</v>
+        <v>2874.884279062559</v>
       </c>
       <c r="R11">
-        <v>2635.501751274019</v>
+        <v>25873.95851156304</v>
       </c>
       <c r="S11">
-        <v>0.09268339834483562</v>
+        <v>0.09371250878898799</v>
       </c>
       <c r="T11">
-        <v>0.09268339834483562</v>
+        <v>0.1148708435528683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.8621589154841</v>
+        <v>20.01936066666667</v>
       </c>
       <c r="H12">
-        <v>18.8621589154841</v>
+        <v>60.058082</v>
       </c>
       <c r="I12">
-        <v>0.3264986823365327</v>
+        <v>0.3314346266855077</v>
       </c>
       <c r="J12">
-        <v>0.3264986823365327</v>
+        <v>0.3977380261782363</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>93.5324968226836</v>
+        <v>125.1953827646636</v>
       </c>
       <c r="R12">
-        <v>93.5324968226836</v>
+        <v>1126.758444881972</v>
       </c>
       <c r="S12">
-        <v>0.003289282451439559</v>
+        <v>0.004080989796048395</v>
       </c>
       <c r="T12">
-        <v>0.003289282451439559</v>
+        <v>0.005002392385613025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.8621589154841</v>
+        <v>20.01936066666667</v>
       </c>
       <c r="H13">
-        <v>18.8621589154841</v>
+        <v>60.058082</v>
       </c>
       <c r="I13">
-        <v>0.3264986823365327</v>
+        <v>0.3314346266855077</v>
       </c>
       <c r="J13">
-        <v>0.3264986823365327</v>
+        <v>0.3977380261782363</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>565.1222741762869</v>
+        <v>599.8465999378697</v>
       </c>
       <c r="R13">
-        <v>565.1222741762869</v>
+        <v>3599.079599627218</v>
       </c>
       <c r="S13">
-        <v>0.01987380688542536</v>
+        <v>0.01955317999340555</v>
       </c>
       <c r="T13">
-        <v>0.01987380688542536</v>
+        <v>0.01597858748356333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.860933729478351</v>
+        <v>0.06182766666666667</v>
       </c>
       <c r="H14">
-        <v>9.860933729478351</v>
+        <v>0.185483</v>
       </c>
       <c r="I14">
-        <v>0.1706899980913411</v>
+        <v>0.00102360060152284</v>
       </c>
       <c r="J14">
-        <v>0.1706899980913411</v>
+        <v>0.001228371600505288</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>18.03856572343809</v>
+        <v>0.1248329030726667</v>
       </c>
       <c r="R14">
-        <v>18.03856572343809</v>
+        <v>0.748997418436</v>
       </c>
       <c r="S14">
-        <v>0.0006343670884326731</v>
+        <v>4.06917405738737E-06</v>
       </c>
       <c r="T14">
-        <v>0.0006343670884326731</v>
+        <v>3.325272599328539E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.860933729478351</v>
+        <v>0.06182766666666667</v>
       </c>
       <c r="H15">
-        <v>9.860933729478351</v>
+        <v>0.185483</v>
       </c>
       <c r="I15">
-        <v>0.1706899980913411</v>
+        <v>0.00102360060152284</v>
       </c>
       <c r="J15">
-        <v>0.1706899980913411</v>
+        <v>0.001228371600505288</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>1296.826884488107</v>
+        <v>8.637004559927776</v>
       </c>
       <c r="R15">
-        <v>1296.826884488107</v>
+        <v>77.73304103935</v>
       </c>
       <c r="S15">
-        <v>0.04560585955262621</v>
+        <v>0.0002815401550690201</v>
       </c>
       <c r="T15">
-        <v>0.04560585955262621</v>
+        <v>0.000345106064544758</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>9.860933729478351</v>
+        <v>0.06182766666666667</v>
       </c>
       <c r="H16">
-        <v>9.860933729478351</v>
+        <v>0.185483</v>
       </c>
       <c r="I16">
-        <v>0.1706899980913411</v>
+        <v>0.00102360060152284</v>
       </c>
       <c r="J16">
-        <v>0.1706899980913411</v>
+        <v>0.001228371600505288</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>1816.645888627621</v>
+        <v>11.52188577421811</v>
       </c>
       <c r="R16">
-        <v>1816.645888627621</v>
+        <v>103.696971967963</v>
       </c>
       <c r="S16">
-        <v>0.06388647416598721</v>
+        <v>0.0003755785336285651</v>
       </c>
       <c r="T16">
-        <v>0.06388647416598721</v>
+        <v>0.0004603763524825434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>9.860933729478351</v>
+        <v>0.06182766666666667</v>
       </c>
       <c r="H17">
-        <v>9.860933729478351</v>
+        <v>0.185483</v>
       </c>
       <c r="I17">
-        <v>0.1706899980913411</v>
+        <v>0.00102360060152284</v>
       </c>
       <c r="J17">
-        <v>0.1706899980913411</v>
+        <v>0.001228371600505288</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>1377.811958306801</v>
+        <v>8.878774395981555</v>
       </c>
       <c r="R17">
-        <v>1377.811958306801</v>
+        <v>79.90896956383401</v>
       </c>
       <c r="S17">
-        <v>0.04845388340732316</v>
+        <v>0.0002894211185050475</v>
       </c>
       <c r="T17">
-        <v>0.04845388340732316</v>
+        <v>0.0003547663855585111</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>9.860933729478351</v>
+        <v>0.06182766666666667</v>
       </c>
       <c r="H18">
-        <v>9.860933729478351</v>
+        <v>0.185483</v>
       </c>
       <c r="I18">
-        <v>0.1706899980913411</v>
+        <v>0.00102360060152284</v>
       </c>
       <c r="J18">
-        <v>0.1706899980913411</v>
+        <v>0.001228371600505288</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>48.89778295548074</v>
+        <v>0.3866526270575557</v>
       </c>
       <c r="R18">
-        <v>48.89778295548074</v>
+        <v>3.479873643518001</v>
       </c>
       <c r="S18">
-        <v>0.001719601473856479</v>
+        <v>1.260370303434673E-05</v>
       </c>
       <c r="T18">
-        <v>0.001719601473856479</v>
+        <v>1.544935695516651E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>9.860933729478351</v>
+        <v>0.06182766666666667</v>
       </c>
       <c r="H19">
-        <v>9.860933729478351</v>
+        <v>0.185483</v>
       </c>
       <c r="I19">
-        <v>0.1706899980913411</v>
+        <v>0.00102360060152284</v>
       </c>
       <c r="J19">
-        <v>0.1706899980913411</v>
+        <v>0.001228371600505288</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>295.4398443822801</v>
+        <v>1.852562439411167</v>
       </c>
       <c r="R19">
-        <v>295.4398443822801</v>
+        <v>11.115374636467</v>
       </c>
       <c r="S19">
-        <v>0.01038981240311538</v>
+        <v>6.038791722847296E-05</v>
       </c>
       <c r="T19">
-        <v>0.01038981240311538</v>
+        <v>4.934816836498004E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>17.4690430579331</v>
+        <v>0.2219073333333333</v>
       </c>
       <c r="H20">
-        <v>17.4690430579331</v>
+        <v>0.6657219999999999</v>
       </c>
       <c r="I20">
-        <v>0.3023842374381208</v>
+        <v>0.003673832316961596</v>
       </c>
       <c r="J20">
-        <v>0.3023842374381208</v>
+        <v>0.004408781390378531</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>31.95604898794569</v>
+        <v>0.4480411137373333</v>
       </c>
       <c r="R20">
-        <v>31.95604898794569</v>
+        <v>2.688246682423999</v>
       </c>
       <c r="S20">
-        <v>0.001123806962543318</v>
+        <v>1.460478152624248E-05</v>
       </c>
       <c r="T20">
-        <v>0.001123806962543318</v>
+        <v>1.193482489160836E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>17.4690430579331</v>
+        <v>0.2219073333333333</v>
       </c>
       <c r="H21">
-        <v>17.4690430579331</v>
+        <v>0.6657219999999999</v>
       </c>
       <c r="I21">
-        <v>0.3023842374381208</v>
+        <v>0.003673832316961596</v>
       </c>
       <c r="J21">
-        <v>0.3023842374381208</v>
+        <v>0.004408781390378531</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>2297.38129322226</v>
+        <v>30.99930424698888</v>
       </c>
       <c r="R21">
-        <v>2297.38129322226</v>
+        <v>278.9937382228999</v>
       </c>
       <c r="S21">
-        <v>0.08079262533093022</v>
+        <v>0.001010483306356152</v>
       </c>
       <c r="T21">
-        <v>0.08079262533093022</v>
+        <v>0.001238629413481912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>17.4690430579331</v>
+        <v>0.2219073333333333</v>
       </c>
       <c r="H22">
-        <v>17.4690430579331</v>
+        <v>0.6657219999999999</v>
       </c>
       <c r="I22">
-        <v>0.3023842374381208</v>
+        <v>0.003673832316961596</v>
       </c>
       <c r="J22">
-        <v>0.3023842374381208</v>
+        <v>0.004408781390378531</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>3218.261690024749</v>
+        <v>41.35350863089356</v>
       </c>
       <c r="R22">
-        <v>3218.261690024749</v>
+        <v>372.181577678042</v>
       </c>
       <c r="S22">
-        <v>0.1131774737202498</v>
+        <v>0.0013479989679069</v>
       </c>
       <c r="T22">
-        <v>0.1131774737202498</v>
+        <v>0.001652349089282489</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>17.4690430579331</v>
+        <v>0.2219073333333333</v>
       </c>
       <c r="H23">
-        <v>17.4690430579331</v>
+        <v>0.6657219999999999</v>
       </c>
       <c r="I23">
-        <v>0.3023842374381208</v>
+        <v>0.003673832316961596</v>
       </c>
       <c r="J23">
-        <v>0.3023842374381208</v>
+        <v>0.004408781390378531</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>2440.849628006769</v>
+        <v>31.86704683686177</v>
       </c>
       <c r="R23">
-        <v>2440.849628006769</v>
+        <v>286.803421531756</v>
       </c>
       <c r="S23">
-        <v>0.08583801481559857</v>
+        <v>0.001038769083168901</v>
       </c>
       <c r="T23">
-        <v>0.08583801481559857</v>
+        <v>0.001273301530203755</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>17.4690430579331</v>
+        <v>0.2219073333333333</v>
       </c>
       <c r="H24">
-        <v>17.4690430579331</v>
+        <v>0.6657219999999999</v>
       </c>
       <c r="I24">
-        <v>0.3023842374381208</v>
+        <v>0.003673832316961596</v>
       </c>
       <c r="J24">
-        <v>0.3023842374381208</v>
+        <v>0.004408781390378531</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>86.62440082456042</v>
+        <v>1.387745293045778</v>
       </c>
       <c r="R24">
-        <v>86.62440082456042</v>
+        <v>12.489707637412</v>
       </c>
       <c r="S24">
-        <v>0.003046343583010082</v>
+        <v>4.523628791550369E-05</v>
       </c>
       <c r="T24">
-        <v>0.003046343583010082</v>
+        <v>5.544970057044236E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2219073333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6657219999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.003673832316961596</v>
+      </c>
+      <c r="J25">
+        <v>0.004408781390378531</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.9633245</v>
+      </c>
+      <c r="N25">
+        <v>59.926649</v>
+      </c>
+      <c r="O25">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P25">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q25">
+        <v>6.649081437596332</v>
+      </c>
+      <c r="R25">
+        <v>39.89448862557799</v>
+      </c>
+      <c r="S25">
+        <v>0.0002167398900878974</v>
+      </c>
+      <c r="T25">
+        <v>0.0001771168319483254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9.891719666666667</v>
+      </c>
+      <c r="H26">
+        <v>29.675159</v>
+      </c>
+      <c r="I26">
+        <v>0.1637643913603182</v>
+      </c>
+      <c r="J26">
+        <v>0.1965254096390445</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.019046</v>
+      </c>
+      <c r="N26">
+        <v>4.038092</v>
+      </c>
+      <c r="O26">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P26">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q26">
+        <v>19.97183702610467</v>
+      </c>
+      <c r="R26">
+        <v>119.831022156628</v>
+      </c>
+      <c r="S26">
+        <v>0.00065102131813506</v>
+      </c>
+      <c r="T26">
+        <v>0.0005320055913664201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9.891719666666667</v>
+      </c>
+      <c r="H27">
+        <v>29.675159</v>
+      </c>
+      <c r="I27">
+        <v>0.1637643913603182</v>
+      </c>
+      <c r="J27">
+        <v>0.1965254096390445</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N27">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P27">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q27">
+        <v>1381.821965353061</v>
+      </c>
+      <c r="R27">
+        <v>12436.39768817755</v>
+      </c>
+      <c r="S27">
+        <v>0.04504320539649363</v>
+      </c>
+      <c r="T27">
+        <v>0.05521302403578742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9.891719666666667</v>
+      </c>
+      <c r="H28">
+        <v>29.675159</v>
+      </c>
+      <c r="I28">
+        <v>0.1637643913603182</v>
+      </c>
+      <c r="J28">
+        <v>0.1965254096390445</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N28">
+        <v>559.064561</v>
+      </c>
+      <c r="O28">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P28">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q28">
+        <v>1843.369970993356</v>
+      </c>
+      <c r="R28">
+        <v>16590.3297389402</v>
+      </c>
+      <c r="S28">
+        <v>0.06008827063620124</v>
+      </c>
+      <c r="T28">
+        <v>0.07365495198891286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>9.891719666666667</v>
+      </c>
+      <c r="H29">
+        <v>29.675159</v>
+      </c>
+      <c r="I29">
+        <v>0.1637643913603182</v>
+      </c>
+      <c r="J29">
+        <v>0.1965254096390445</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N29">
+        <v>430.815598</v>
+      </c>
+      <c r="O29">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P29">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q29">
+        <v>1420.50237448112</v>
+      </c>
+      <c r="R29">
+        <v>12784.52137033008</v>
+      </c>
+      <c r="S29">
+        <v>0.0463040694273606</v>
+      </c>
+      <c r="T29">
+        <v>0.05675856493211842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>9.891719666666667</v>
+      </c>
+      <c r="H30">
+        <v>29.675159</v>
+      </c>
+      <c r="I30">
+        <v>0.1637643913603182</v>
+      </c>
+      <c r="J30">
+        <v>0.1965254096390445</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N30">
+        <v>18.761146</v>
+      </c>
+      <c r="O30">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P30">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q30">
+        <v>61.85999895246824</v>
+      </c>
+      <c r="R30">
+        <v>556.7399905722141</v>
+      </c>
+      <c r="S30">
+        <v>0.002016448362022511</v>
+      </c>
+      <c r="T30">
+        <v>0.00247172044927202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9.891719666666667</v>
+      </c>
+      <c r="H31">
+        <v>29.675159</v>
+      </c>
+      <c r="I31">
+        <v>0.1637643913603182</v>
+      </c>
+      <c r="J31">
+        <v>0.1965254096390445</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.9633245</v>
+      </c>
+      <c r="N31">
+        <v>59.926649</v>
+      </c>
+      <c r="O31">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P31">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q31">
+        <v>296.3888062353652</v>
+      </c>
+      <c r="R31">
+        <v>1778.332837412191</v>
+      </c>
+      <c r="S31">
+        <v>0.009661376220105206</v>
+      </c>
+      <c r="T31">
+        <v>0.007895142641587385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>17.590281</v>
+      </c>
+      <c r="H32">
+        <v>35.18056199999999</v>
+      </c>
+      <c r="I32">
+        <v>0.2912195006424703</v>
+      </c>
+      <c r="J32">
+        <v>0.2329852506731911</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.019046</v>
+      </c>
+      <c r="N32">
+        <v>4.038092</v>
+      </c>
+      <c r="O32">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P32">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q32">
+        <v>35.51558649192599</v>
+      </c>
+      <c r="R32">
+        <v>142.062345967704</v>
+      </c>
+      <c r="S32">
+        <v>0.001157700410938263</v>
+      </c>
+      <c r="T32">
+        <v>0.0006307044788340647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>17.590281</v>
+      </c>
+      <c r="H33">
+        <v>35.18056199999999</v>
+      </c>
+      <c r="I33">
+        <v>0.2912195006424703</v>
+      </c>
+      <c r="J33">
+        <v>0.2329852506731911</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N33">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P33">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q33">
+        <v>2457.271079410149</v>
+      </c>
+      <c r="R33">
+        <v>14743.6264764609</v>
+      </c>
+      <c r="S33">
+        <v>0.08009958498268256</v>
+      </c>
+      <c r="T33">
+        <v>0.06545626984841123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>17.590281</v>
+      </c>
+      <c r="H34">
+        <v>35.18056199999999</v>
+      </c>
+      <c r="I34">
+        <v>0.2912195006424703</v>
+      </c>
+      <c r="J34">
+        <v>0.2329852506731911</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N34">
+        <v>559.064561</v>
+      </c>
+      <c r="O34">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P34">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q34">
+        <v>3278.034241710547</v>
+      </c>
+      <c r="R34">
+        <v>19668.20545026328</v>
+      </c>
+      <c r="S34">
+        <v>0.106853974931844</v>
+      </c>
+      <c r="T34">
+        <v>0.08731958622540056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>17.4690430579331</v>
-      </c>
-      <c r="H25">
-        <v>17.4690430579331</v>
-      </c>
-      <c r="I25">
-        <v>0.3023842374381208</v>
-      </c>
-      <c r="J25">
-        <v>0.3023842374381208</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="N25">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="O25">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="P25">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="Q25">
-        <v>523.3836373034958</v>
-      </c>
-      <c r="R25">
-        <v>523.3836373034958</v>
-      </c>
-      <c r="S25">
-        <v>0.01840597302578885</v>
-      </c>
-      <c r="T25">
-        <v>0.01840597302578885</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>17.590281</v>
+      </c>
+      <c r="H35">
+        <v>35.18056199999999</v>
+      </c>
+      <c r="I35">
+        <v>0.2912195006424703</v>
+      </c>
+      <c r="J35">
+        <v>0.2329852506731911</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N35">
+        <v>430.815598</v>
+      </c>
+      <c r="O35">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P35">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q35">
+        <v>2526.055809334346</v>
+      </c>
+      <c r="R35">
+        <v>15156.33485600607</v>
+      </c>
+      <c r="S35">
+        <v>0.08234175857363885</v>
+      </c>
+      <c r="T35">
+        <v>0.06728854300748371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>17.590281</v>
+      </c>
+      <c r="H36">
+        <v>35.18056199999999</v>
+      </c>
+      <c r="I36">
+        <v>0.2912195006424703</v>
+      </c>
+      <c r="J36">
+        <v>0.2329852506731911</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N36">
+        <v>18.761146</v>
+      </c>
+      <c r="O36">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P36">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q36">
+        <v>110.004610007342</v>
+      </c>
+      <c r="R36">
+        <v>660.027660044052</v>
+      </c>
+      <c r="S36">
+        <v>0.003585816673464062</v>
+      </c>
+      <c r="T36">
+        <v>0.002930279649463113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>17.590281</v>
+      </c>
+      <c r="H37">
+        <v>35.18056199999999</v>
+      </c>
+      <c r="I37">
+        <v>0.2912195006424703</v>
+      </c>
+      <c r="J37">
+        <v>0.2329852506731911</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.9633245</v>
+      </c>
+      <c r="N37">
+        <v>59.926649</v>
+      </c>
+      <c r="O37">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P37">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q37">
+        <v>527.0632976491844</v>
+      </c>
+      <c r="R37">
+        <v>2108.253190596738</v>
+      </c>
+      <c r="S37">
+        <v>0.01718066506990258</v>
+      </c>
+      <c r="T37">
+        <v>0.009359867463598383</v>
       </c>
     </row>
   </sheetData>
